--- a/mini-project/document/API 명세서.xlsx
+++ b/mini-project/document/API 명세서.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1단계" sheetId="1" r:id="rId1"/>
+    <sheet name="2단계" sheetId="2" r:id="rId2"/>
+    <sheet name="3단계" sheetId="3" r:id="rId3"/>
+    <sheet name="4단계" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="90">
   <si>
     <t>Method</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -58,28 +61,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/team</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/employee</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>팀 등록</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1. 팀 이름이 null인 경우
-2. 팀 이름이 이미 존재하는 경우</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>GET</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/team</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -94,10 +80,6 @@
   </si>
   <si>
     <t>GET</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/employee</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -156,6 +138,332 @@
   </si>
   <si>
     <t>모든 직원 조회</t>
+  </si>
+  <si>
+    <t>/api/v1/team</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/employee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/team</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/employee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>근무시간 조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>근무시간 조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "detail": [
+    {
+      "date": "yyyy-mm-dd",
+      "workingMinutes": 근무시간(분)
+    },
+    ...
+  ],
+  "sum": 총 근무시간(분)
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"id": 직원 ID,
+"month": "2024-01"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴근</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴근</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "id": 직원 ID
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "id": 직원 ID
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출근</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출근</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 팀 조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 팀 조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+  {
+    "name": "팀 이름",
+    "manager": "팀 매니저 이름", // 없을 경우 null
+    "memberCount": "팀 인원 수"
+  },
+  ...
+]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 등록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 등록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 팀 이름이 null인 경우
+2. 팀 이름이 이미 존재하는 경우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 팀 이름이 null인 경우
+2. 팀 이름이 이미 존재하는 경우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "name": 팀 이름
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>team</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>team</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exception</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response Body</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response Body</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request Body</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request Body</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Query</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Query</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>URI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>URI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연차 조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "id": 직원ID
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연차 등록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연차 등록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "detail": [
+    {
+      "date": "yyyy-mm-dd",
+      "workingMinutes": 근무시간(분)
+    },
+    ...
+  ],
+  "sum": 총 근무시간(분)
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exception</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+  {
+    "id": "직원 ID",
+    "name": "직원 이름",  // 이름 중간 * 로 가림 ex) 김*수
+    "overtimeMinutes": 초과 근무 시간(분)
+  },
+  ...
+]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "month" "yyyy-mm": 
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/employee/overtime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"id": 직원 ID,
+"month": "yyyy-mm"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/employee/start-work</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/employee/end-work</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/employee/working-time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/employee/day-off</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/employee/day-off</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "id": 직원ID,
+  "date": "yyyy-mm-dd"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초과 근무 시간 조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+  {
+    "name": "직원 이름",
+    "teamName": "팀 이름",
+    "role": "MANAGER" or "MEMBER", // 팀의 매니저인지 멤버인지
+    "birthday": "yyyy-mm-dd",
+    "workStartDate": "yyyy-mm-dd"
+  },
+  ...
+]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/employee/working-time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/employee/day-off</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -209,7 +517,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -391,6 +699,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -400,7 +758,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -454,6 +812,75 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -738,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -747,7 +1174,7 @@
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="12.125" customWidth="1"/>
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="57.25" customWidth="1"/>
@@ -758,10 +1185,10 @@
     <row r="1" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="13" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>0</v>
@@ -790,24 +1217,24 @@
         <v>1</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="11" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="132" x14ac:dyDescent="0.3">
@@ -816,19 +1243,19 @@
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
@@ -849,24 +1276,24 @@
         <v>4</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="165" x14ac:dyDescent="0.3">
@@ -875,19 +1302,19 @@
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="3" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -912,4 +1339,850 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J11"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="20"/>
+    <col min="2" max="2" width="9" style="21"/>
+    <col min="3" max="3" width="12.125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" style="20" customWidth="1"/>
+    <col min="7" max="7" width="19" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57.25" style="20" customWidth="1"/>
+    <col min="9" max="9" width="28.375" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="50.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="29">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="30"/>
+      <c r="I3" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="132" x14ac:dyDescent="0.3">
+      <c r="B4" s="24">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="24">
+        <v>3</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="25"/>
+    </row>
+    <row r="6" spans="2:10" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="24">
+        <v>4</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="B7" s="24">
+        <v>5</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="36">
+        <v>6</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="38"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="36">
+        <v>7</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="38"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="B10" s="36">
+        <v>8</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="37"/>
+      <c r="H10" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="37"/>
+      <c r="J10" s="39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="26">
+        <v>9</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C6:C10"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="20"/>
+    <col min="2" max="2" width="9" style="21"/>
+    <col min="3" max="3" width="12.125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" style="20" customWidth="1"/>
+    <col min="7" max="7" width="19" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57.25" style="20" customWidth="1"/>
+    <col min="9" max="9" width="28.375" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="50.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="29">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="30"/>
+      <c r="I3" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="132" x14ac:dyDescent="0.3">
+      <c r="B4" s="24">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="24">
+        <v>3</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="25"/>
+    </row>
+    <row r="6" spans="2:10" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="24">
+        <v>4</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="B7" s="24">
+        <v>5</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="36">
+        <v>6</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="38"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="36">
+        <v>7</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="38"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="B10" s="36">
+        <v>8</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="37"/>
+      <c r="H10" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="37"/>
+      <c r="J10" s="39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="36">
+        <v>9</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="38"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="36">
+        <v>10</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="26">
+        <v>11</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C6:C12"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="20"/>
+    <col min="2" max="2" width="9" style="21"/>
+    <col min="3" max="3" width="12.125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" style="20" customWidth="1"/>
+    <col min="7" max="7" width="19" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57.25" style="20" customWidth="1"/>
+    <col min="9" max="9" width="28.375" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="50.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="29">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="30"/>
+      <c r="I3" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="132" x14ac:dyDescent="0.3">
+      <c r="B4" s="24">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="24">
+        <v>3</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="25"/>
+    </row>
+    <row r="6" spans="2:10" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="24">
+        <v>4</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="B7" s="24">
+        <v>5</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="36">
+        <v>6</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="38"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="36">
+        <v>7</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="38"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="B10" s="36">
+        <v>8</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="37"/>
+      <c r="H10" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="37"/>
+      <c r="J10" s="39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="36">
+        <v>9</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="38"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="36">
+        <v>10</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="132" x14ac:dyDescent="0.3">
+      <c r="B13" s="36">
+        <v>11</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="38"/>
+      <c r="H13" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="37"/>
+      <c r="J13" s="40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C6:C13"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>